--- a/scraping_results.xlsx
+++ b/scraping_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,18 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Académie Jeans Henri Lambert</t>
+          <t>Vip Turk Morocco</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tel:05 22 74 14 18</t>
+          <t>tel:06 61 45 03 91</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>College Abdellah Guenoun</t>
+          <t>2 as Design</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -491,8 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,18 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>College Abidar Al Ghifari</t>
+          <t>2E.H Design</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pas de tel</t>
+          <t>tel:05 22 65 81 81</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,18 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COLLEGE COURS SUBRINI PRIVE</t>
+          <t>313 Design International</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pas de tel</t>
+          <t>tel:05 22 47 28 27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -550,18 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>College Institution Lahlou Mimi</t>
+          <t>Ab Design</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tel:05 22 20 99 36</t>
+          <t>tel:06 61 47 03 03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,18 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>College Mohamed Belarbi Alaoui</t>
+          <t>Abg Design</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tel:06 66 60 68 56</t>
+          <t>tel:05 22 20 87 27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -596,18 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>College Moulay Slimane</t>
+          <t>AC DESIGN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tel:05 22 22 00 85</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -619,18 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>College National de Prothese</t>
+          <t>ACTUS DESIGN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tel:06 61 32 73 03</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -642,18 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Collège 2 Mars</t>
+          <t>Adbens Design</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tel:05 22 86 00 08</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -665,18 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Collège 20 Août</t>
+          <t>Agam Design</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tel:05 22 70 26 78</t>
+          <t>tel:05 22 25 55 20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,18 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Collège Abdelkhalek Torres</t>
+          <t>Ahl Design &amp; Engineering Maroc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tel:05 22 37 06 55</t>
+          <t>tel:05 22 98 86 92</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -711,18 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Collège Abdellah Benyassine</t>
+          <t xml:space="preserve">Al Ma Studio </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tel:05 22 70 66 01</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -734,18 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Collège Abdellah Guennoun</t>
+          <t>ALHAMBRA DESIGNS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tel:05 22 91 51 26</t>
+          <t>tel:52 28 73 60 4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -757,18 +744,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Collège Abdellah Guennoune</t>
+          <t>Alto Design</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tel:05 22 71 98 17</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -780,18 +766,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Collège Abdelmalek Saâdi</t>
+          <t>Always Star Design</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tel:05 22 70 80 08</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -803,18 +788,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Collège Abou Kacim Echabbi</t>
+          <t>Amazon Design</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tel:05 22 63 66 55</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -826,18 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Collège Aboubakr Essedik</t>
+          <t>Amendo Design</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tel:05 22 33 50 98</t>
+          <t>tel:07 70 55 09 51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -849,18 +832,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Collège Aboulkacem Chabbi</t>
+          <t>Amines Design</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tel:05 22 20 92 45</t>
+          <t>tel:05 20 06 30 45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -872,18 +854,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Collège Akid Allam</t>
+          <t>Aminor Design</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tel:05 22 70 54 76</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">college
-</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -895,17 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mekouar Ahmed</t>
+          <t>Amk Design</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tel:05 22 25 28 69</t>
+          <t>tel:05 22 50 40 84</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -917,17 +898,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sterimedical</t>
+          <t>Andal Design</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tel:05 22 89 71 89</t>
+          <t>tel:05 22 69 13 06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -939,17 +920,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chrono Smile</t>
+          <t>ANONYMOUS INFRASTRUCTURE DESIGN LABORATORY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tel:05 22 25 85 78</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -961,17 +942,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Demni Hicham</t>
+          <t>Another Design</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tel:05 20 59 00 76</t>
+          <t>tel:06 88 72 88 85</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -983,17 +964,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3Dental</t>
+          <t>Antilope Design International( Antilope )</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tel:05 20 50 48 50</t>
+          <t>tel:05 22 93 40 90</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1005,17 +986,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3H Medical</t>
+          <t>Archi Design</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tel:05 22 44 93 89</t>
+          <t>tel:05 22 27 76 03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1027,17 +1008,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5G Dental</t>
+          <t>Archi Design Architectes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tel:05 22 70 30 76</t>
+          <t>tel:05 22 29 40 68</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1049,17 +1030,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Abassi Anas</t>
+          <t>Archika Design</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tel:05 22 62 27 22</t>
+          <t>tel:05 22 25 54 59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1071,17 +1052,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Abassi Chraïbi Chakib</t>
+          <t>Archipel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tel:05 22 49 26 11</t>
+          <t>tel:05 22 23 14 55</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1093,17 +1074,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Abba Fatima</t>
+          <t>Ark Design</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tel:05 22 38 36 44</t>
+          <t>tel:06 61 51 41 87</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1115,17 +1096,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Abbassi Bouchra</t>
+          <t>Art Italien Style et Désign</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tel:05 22 98 97 01</t>
+          <t>tel:05 22 66 29 56</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1137,17 +1118,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Abbassi Mohammed Kamal</t>
+          <t xml:space="preserve">Artech Design </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tel:05 22 99 33 94</t>
+          <t>tel:06 65 42 04 54</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1159,17 +1140,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Abc Dentaire</t>
+          <t>Asmaa Design</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tel:05 22 87 29 87</t>
+          <t>tel:05 22 35 97 06</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1181,17 +1162,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Abdeljamil Ouafaa</t>
+          <t>Asmaa Design</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tel:05 22 71 38 94</t>
+          <t>tel:05 26 40 71 25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1203,17 +1184,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Abdelkhaleq Salwa</t>
+          <t>Atelier Architecture et Design</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tel:05 22 25 81 26</t>
+          <t>tel:05 22 31 08 04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1225,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Abdellaoui Aïcha</t>
+          <t>ATIF DESIGN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tel:05 22 58 34 08</t>
+          <t>Pas de tel</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1247,20 +1228,878 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Abderrazik Naima</t>
+          <t>Atilinour</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tel:05 22 55 77 88</t>
+          <t>tel:06 61 80 08 10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>dentiste</t>
+          <t>Designers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AUTO DESIGN TUNING</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Autre Design</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Autrement Design</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tel:06 62 47 56 12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Az Design</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tel:05 22 99 47 35</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Azia Design</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tel:05 22 21 97 12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Azs Design</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tel:05 22 20 72 89</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B&amp;K Design</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tel:06 61 13 84 02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B.M Design</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B6 Inter Design</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tel:05 22 95 13 23</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Baec</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tel:05 22 94 51 67</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BANHO DESIGN</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Baski Design</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tel:05 20 88 66 00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Bati Design</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tel:05 22 98 77 03</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BCM DESIGN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Beaudeco Design</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tel:05 22 23 22 55</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Beauty Design</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tel:05 22 21 93 95</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Bella Design Maroc</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tel:06 19 66 61 00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Bens Design</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tel:05 22 22 34 47</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BIANCHINI DESIGN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Boutique Nana Design</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tel:05 22 29 72 31</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Bouzide Designe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tel:06 61 24 67 80</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Building Archi Design</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tel:06 61 11 67 32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cake Style</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Cameleon Design</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tel:05 22 36 74 11</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Candles Store</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Cap Media</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tel:05 22 39 03 91</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Capture Design</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Car Lux Design</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tel:05 22 61 71 81</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cardinal Design</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tel:06 61 23 81 00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Casa Design</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tel:05 22 89 25 80</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Casitalia Design</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tel:05 22 39 01 28</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Castor Packaging &amp; Services( C.P.S )</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CBR Advance Company</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tel:05 22 72 73 29</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Centdegres</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tel:05 22 95 12 68</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CERAMIC &amp; DESIGN</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Coin Design Ameublement</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tel:05 22 94 00 44</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Color Désign</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tel:05 22 70 18 04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Concrete Design</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pas de tel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Confort et Design des Meubles de Bureau( C.d.m.b. )</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tel:05 22 44 78 27</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Designers</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>casablanca</t>
         </is>
